--- a/data/pca/factorExposure/factorExposure_2014-12-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0149441888938053</v>
+        <v>0.01170383273783189</v>
       </c>
       <c r="C2">
-        <v>0.03192575957312082</v>
+        <v>-0.05269879288762001</v>
       </c>
       <c r="D2">
-        <v>-0.1326458401319592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06688043926461165</v>
+      </c>
+      <c r="E2">
+        <v>-0.1054400024524469</v>
+      </c>
+      <c r="F2">
+        <v>0.1478842899644901</v>
+      </c>
+      <c r="G2">
+        <v>-0.05866412851411048</v>
+      </c>
+      <c r="H2">
+        <v>-0.06221497332847999</v>
+      </c>
+      <c r="I2">
+        <v>0.02373197387434874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04236955428873736</v>
+        <v>0.02009518399845882</v>
       </c>
       <c r="C4">
-        <v>0.1195336486232877</v>
+        <v>-0.1429096508505411</v>
       </c>
       <c r="D4">
-        <v>-0.09955161607711997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.03162606969145956</v>
+      </c>
+      <c r="E4">
+        <v>-0.07769234680633488</v>
+      </c>
+      <c r="F4">
+        <v>0.1044068774750467</v>
+      </c>
+      <c r="G4">
+        <v>0.05958905743477333</v>
+      </c>
+      <c r="H4">
+        <v>0.01758492905931491</v>
+      </c>
+      <c r="I4">
+        <v>0.08021611276729937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02034400775507832</v>
+        <v>0.02945467356785506</v>
       </c>
       <c r="C6">
-        <v>0.04726038998735724</v>
+        <v>-0.05711774202397973</v>
       </c>
       <c r="D6">
-        <v>-0.0837651351812662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03968728634774919</v>
+      </c>
+      <c r="E6">
+        <v>-0.08903593161572158</v>
+      </c>
+      <c r="F6">
+        <v>0.05128836902622675</v>
+      </c>
+      <c r="G6">
+        <v>-0.04026129164269199</v>
+      </c>
+      <c r="H6">
+        <v>0.03740071594192072</v>
+      </c>
+      <c r="I6">
+        <v>0.02068533541554291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008589677951266608</v>
+        <v>0.006117910461254628</v>
       </c>
       <c r="C7">
-        <v>0.03674926588848102</v>
+        <v>-0.05438686020311313</v>
       </c>
       <c r="D7">
-        <v>-0.06424413227098789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03797135570598846</v>
+      </c>
+      <c r="E7">
+        <v>-0.07013040959838335</v>
+      </c>
+      <c r="F7">
+        <v>0.008733339129637896</v>
+      </c>
+      <c r="G7">
+        <v>0.01716274304733162</v>
+      </c>
+      <c r="H7">
+        <v>0.04098452192001813</v>
+      </c>
+      <c r="I7">
+        <v>0.08394914328469912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003377674312490028</v>
+        <v>-0.007026654838884283</v>
       </c>
       <c r="C8">
-        <v>0.05063737844734826</v>
+        <v>-0.05935993490593348</v>
       </c>
       <c r="D8">
-        <v>-0.0823172596038847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01864970905653866</v>
+      </c>
+      <c r="E8">
+        <v>-0.06660683988292961</v>
+      </c>
+      <c r="F8">
+        <v>0.08280392731491729</v>
+      </c>
+      <c r="G8">
+        <v>0.0285634649621536</v>
+      </c>
+      <c r="H8">
+        <v>-0.05417629286428193</v>
+      </c>
+      <c r="I8">
+        <v>0.0210617368788719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02474059801983936</v>
+        <v>0.01156477055443786</v>
       </c>
       <c r="C9">
-        <v>0.09721133502195249</v>
+        <v>-0.1139391513683252</v>
       </c>
       <c r="D9">
-        <v>-0.08693107811731923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03026450146556445</v>
+      </c>
+      <c r="E9">
+        <v>-0.06621079414516523</v>
+      </c>
+      <c r="F9">
+        <v>0.06863367561487753</v>
+      </c>
+      <c r="G9">
+        <v>0.007622230414414789</v>
+      </c>
+      <c r="H9">
+        <v>0.03512407398966001</v>
+      </c>
+      <c r="I9">
+        <v>0.08356436459956518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2219482879091628</v>
+        <v>0.2428228618013344</v>
       </c>
       <c r="C10">
-        <v>-0.1110236717011075</v>
+        <v>0.08276907184436191</v>
       </c>
       <c r="D10">
-        <v>0.04350073441553146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01660005997228571</v>
+      </c>
+      <c r="E10">
+        <v>0.0219517703161402</v>
+      </c>
+      <c r="F10">
+        <v>0.01020409561865182</v>
+      </c>
+      <c r="G10">
+        <v>0.006724769314709063</v>
+      </c>
+      <c r="H10">
+        <v>0.03382138039781411</v>
+      </c>
+      <c r="I10">
+        <v>0.04084064388004266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.009222241420053604</v>
+        <v>0.0119229327625855</v>
       </c>
       <c r="C11">
-        <v>0.04266572933324993</v>
+        <v>-0.06624052642305145</v>
       </c>
       <c r="D11">
-        <v>-0.04802042798338447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.01790321199682703</v>
+      </c>
+      <c r="E11">
+        <v>-0.05434800167560824</v>
+      </c>
+      <c r="F11">
+        <v>0.003468787641746754</v>
+      </c>
+      <c r="G11">
+        <v>0.01378761815405351</v>
+      </c>
+      <c r="H11">
+        <v>0.03143985449073348</v>
+      </c>
+      <c r="I11">
+        <v>0.04196791836113966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01300697782927884</v>
+        <v>0.01392178621314978</v>
       </c>
       <c r="C12">
-        <v>0.04482002350526242</v>
+        <v>-0.05593977853397873</v>
       </c>
       <c r="D12">
-        <v>-0.05071350919134939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02376860352596736</v>
+      </c>
+      <c r="E12">
+        <v>-0.0404632197693898</v>
+      </c>
+      <c r="F12">
+        <v>-0.006616716777348573</v>
+      </c>
+      <c r="G12">
+        <v>-0.01378036878917098</v>
+      </c>
+      <c r="H12">
+        <v>0.028169408296009</v>
+      </c>
+      <c r="I12">
+        <v>0.04811803964342774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0165946330166253</v>
+        <v>0.004257861190677851</v>
       </c>
       <c r="C13">
-        <v>0.057099513709109</v>
+        <v>-0.0926679328441793</v>
       </c>
       <c r="D13">
-        <v>-0.1306429865172178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07928114509691535</v>
+      </c>
+      <c r="E13">
+        <v>-0.1226813675846777</v>
+      </c>
+      <c r="F13">
+        <v>0.0468783604637123</v>
+      </c>
+      <c r="G13">
+        <v>-0.1053756994031992</v>
+      </c>
+      <c r="H13">
+        <v>0.02786668069437868</v>
+      </c>
+      <c r="I13">
+        <v>0.08557180564852754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004495675716811135</v>
+        <v>0.005615123271970283</v>
       </c>
       <c r="C14">
-        <v>0.02128663002789466</v>
+        <v>-0.04917437982877691</v>
       </c>
       <c r="D14">
-        <v>-0.05843639475620264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02374637481767551</v>
+      </c>
+      <c r="E14">
+        <v>-0.1061489392313391</v>
+      </c>
+      <c r="F14">
+        <v>0.01907555233102722</v>
+      </c>
+      <c r="G14">
+        <v>-0.03637290966490236</v>
+      </c>
+      <c r="H14">
+        <v>0.05855125764346181</v>
+      </c>
+      <c r="I14">
+        <v>0.139551798357044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001635723917569483</v>
+        <v>-0.004224940429795746</v>
       </c>
       <c r="C15">
-        <v>0.02564150991333528</v>
+        <v>-0.0486361434202351</v>
       </c>
       <c r="D15">
-        <v>-0.07589660827825535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03514060376145751</v>
+      </c>
+      <c r="E15">
+        <v>-0.07523679752645784</v>
+      </c>
+      <c r="F15">
+        <v>0.01748454625817731</v>
+      </c>
+      <c r="G15">
+        <v>0.007895023812353416</v>
+      </c>
+      <c r="H15">
+        <v>0.00315856638556091</v>
+      </c>
+      <c r="I15">
+        <v>0.05552159382251107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.008591065218665496</v>
+        <v>0.01061402092582705</v>
       </c>
       <c r="C16">
-        <v>0.03920043130388349</v>
+        <v>-0.05645343164337287</v>
       </c>
       <c r="D16">
-        <v>-0.04115571110664108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02089933615014051</v>
+      </c>
+      <c r="E16">
+        <v>-0.03985184089016337</v>
+      </c>
+      <c r="F16">
+        <v>-0.001201064974932288</v>
+      </c>
+      <c r="G16">
+        <v>-0.001764337787448047</v>
+      </c>
+      <c r="H16">
+        <v>0.03693024202834342</v>
+      </c>
+      <c r="I16">
+        <v>0.04087376200895418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.01084918447406603</v>
+        <v>0.004365313391236562</v>
       </c>
       <c r="C19">
-        <v>0.01526285697816178</v>
+        <v>-0.01209870177197842</v>
       </c>
       <c r="D19">
-        <v>-0.02477044445195812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0001225317415710962</v>
+      </c>
+      <c r="E19">
+        <v>-0.01013941153281632</v>
+      </c>
+      <c r="F19">
+        <v>-0.008992899741388498</v>
+      </c>
+      <c r="G19">
+        <v>-0.005188843772433148</v>
+      </c>
+      <c r="H19">
+        <v>-0.02536499904047935</v>
+      </c>
+      <c r="I19">
+        <v>0.0258544330497596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002073820251147711</v>
+        <v>0.002202368749568644</v>
       </c>
       <c r="C20">
-        <v>0.04095435371660309</v>
+        <v>-0.064131742684725</v>
       </c>
       <c r="D20">
-        <v>-0.06446884854157486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03686353067932852</v>
+      </c>
+      <c r="E20">
+        <v>-0.06717376412036903</v>
+      </c>
+      <c r="F20">
+        <v>0.007693593253010475</v>
+      </c>
+      <c r="G20">
+        <v>0.01641689244930255</v>
+      </c>
+      <c r="H20">
+        <v>0.06046472452865342</v>
+      </c>
+      <c r="I20">
+        <v>0.06598554908933087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01764871376264761</v>
+        <v>0.01047972606870266</v>
       </c>
       <c r="C21">
-        <v>0.05812836271939975</v>
+        <v>-0.07042604628089527</v>
       </c>
       <c r="D21">
-        <v>-0.08401334470311117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03007498825392153</v>
+      </c>
+      <c r="E21">
+        <v>-0.08318450273579832</v>
+      </c>
+      <c r="F21">
+        <v>0.06682205631758727</v>
+      </c>
+      <c r="G21">
+        <v>-0.104877478938372</v>
+      </c>
+      <c r="H21">
+        <v>0.001555136532305709</v>
+      </c>
+      <c r="I21">
+        <v>0.1825708144252748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00319096273029453</v>
+        <v>-0.01075649036340618</v>
       </c>
       <c r="C22">
-        <v>0.06152368652032377</v>
+        <v>-0.1016249119183459</v>
       </c>
       <c r="D22">
-        <v>-0.1991710618299249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1599321755734142</v>
+      </c>
+      <c r="E22">
+        <v>-0.1684469789697892</v>
+      </c>
+      <c r="F22">
+        <v>0.2920984769591426</v>
+      </c>
+      <c r="G22">
+        <v>0.1320936390875602</v>
+      </c>
+      <c r="H22">
+        <v>-0.2142910420376278</v>
+      </c>
+      <c r="I22">
+        <v>-0.4277914233033476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003225034542738739</v>
+        <v>-0.007455940337320666</v>
       </c>
       <c r="C23">
-        <v>0.06282896919615885</v>
+        <v>-0.1046373008311097</v>
       </c>
       <c r="D23">
-        <v>-0.1987914780622226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1622736418206416</v>
+      </c>
+      <c r="E23">
+        <v>-0.1659185176950276</v>
+      </c>
+      <c r="F23">
+        <v>0.2869396238534729</v>
+      </c>
+      <c r="G23">
+        <v>0.1253299829217951</v>
+      </c>
+      <c r="H23">
+        <v>-0.204920260173986</v>
+      </c>
+      <c r="I23">
+        <v>-0.400081401925013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01247834319936637</v>
+        <v>0.0128915826397731</v>
       </c>
       <c r="C24">
-        <v>0.06306179780755951</v>
+        <v>-0.07446654322092834</v>
       </c>
       <c r="D24">
-        <v>-0.05572907169328326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01363061678761589</v>
+      </c>
+      <c r="E24">
+        <v>-0.05466401053661245</v>
+      </c>
+      <c r="F24">
+        <v>-0.0003778453529938946</v>
+      </c>
+      <c r="G24">
+        <v>0.003706413679226674</v>
+      </c>
+      <c r="H24">
+        <v>0.02552547864605606</v>
+      </c>
+      <c r="I24">
+        <v>0.05940755685004048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01586779523697625</v>
+        <v>0.01752425839200234</v>
       </c>
       <c r="C25">
-        <v>0.05447032368538843</v>
+        <v>-0.06777315087690315</v>
       </c>
       <c r="D25">
-        <v>-0.04562117025066356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01604833831366502</v>
+      </c>
+      <c r="E25">
+        <v>-0.0411441050353132</v>
+      </c>
+      <c r="F25">
+        <v>0.00303415069971336</v>
+      </c>
+      <c r="G25">
+        <v>0.009035416602965664</v>
+      </c>
+      <c r="H25">
+        <v>0.03340720472140771</v>
+      </c>
+      <c r="I25">
+        <v>0.03924508352412821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006403590332770419</v>
+        <v>0.01708305381575711</v>
       </c>
       <c r="C26">
-        <v>0.03031543875563979</v>
+        <v>-0.05032934158097176</v>
       </c>
       <c r="D26">
-        <v>-0.05234450558105075</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.002609533881460259</v>
+      </c>
+      <c r="E26">
+        <v>-0.08400188989128865</v>
+      </c>
+      <c r="F26">
+        <v>0.03341653666435807</v>
+      </c>
+      <c r="G26">
+        <v>-0.006826552966227318</v>
+      </c>
+      <c r="H26">
+        <v>0.02670200658617374</v>
+      </c>
+      <c r="I26">
+        <v>0.1284684899197066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3008488939432705</v>
+        <v>0.3115977442986529</v>
       </c>
       <c r="C28">
-        <v>-0.1367540132050616</v>
+        <v>0.1037788793293231</v>
       </c>
       <c r="D28">
-        <v>0.04732181688679592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01246152181861379</v>
+      </c>
+      <c r="E28">
+        <v>0.04140261125459194</v>
+      </c>
+      <c r="F28">
+        <v>0.0650124425358055</v>
+      </c>
+      <c r="G28">
+        <v>0.03657532030086971</v>
+      </c>
+      <c r="H28">
+        <v>-0.02651374096241635</v>
+      </c>
+      <c r="I28">
+        <v>0.06985194344142599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.004588653156763651</v>
+        <v>0.004671120895551538</v>
       </c>
       <c r="C29">
-        <v>0.02990870143634573</v>
+        <v>-0.05856697994074098</v>
       </c>
       <c r="D29">
-        <v>-0.07070956485559979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03415916540795178</v>
+      </c>
+      <c r="E29">
+        <v>-0.1153485544652201</v>
+      </c>
+      <c r="F29">
+        <v>0.02210928875759305</v>
+      </c>
+      <c r="G29">
+        <v>-0.05529358017424695</v>
+      </c>
+      <c r="H29">
+        <v>0.08547897042417349</v>
+      </c>
+      <c r="I29">
+        <v>0.1743394719837547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02599488663134386</v>
+        <v>0.02036645547824273</v>
       </c>
       <c r="C30">
-        <v>0.09482954440347657</v>
+        <v>-0.1206980054759874</v>
       </c>
       <c r="D30">
-        <v>-0.1378681406205428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0540781982334672</v>
+      </c>
+      <c r="E30">
+        <v>-0.1165974343467037</v>
+      </c>
+      <c r="F30">
+        <v>0.05550090038448589</v>
+      </c>
+      <c r="G30">
+        <v>0.01856319553992388</v>
+      </c>
+      <c r="H30">
+        <v>0.003377343547634562</v>
+      </c>
+      <c r="I30">
+        <v>0.02707108126559838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01456136588209322</v>
+        <v>0.01043859705201671</v>
       </c>
       <c r="C31">
-        <v>0.08868862897124888</v>
+        <v>-0.09800888744221749</v>
       </c>
       <c r="D31">
-        <v>-0.03326170577640235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001053274657458783</v>
+      </c>
+      <c r="E31">
+        <v>-0.0274511481913225</v>
+      </c>
+      <c r="F31">
+        <v>0.002147251906919311</v>
+      </c>
+      <c r="G31">
+        <v>2.590373226354639e-05</v>
+      </c>
+      <c r="H31">
+        <v>-0.02034094505749918</v>
+      </c>
+      <c r="I31">
+        <v>0.05931280614849783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02424228239189498</v>
+        <v>0.01818825148735762</v>
       </c>
       <c r="C32">
-        <v>0.05141164518508815</v>
+        <v>-0.06160155945186808</v>
       </c>
       <c r="D32">
-        <v>-0.09982922956207656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03160024224706681</v>
+      </c>
+      <c r="E32">
+        <v>-0.06503633036232667</v>
+      </c>
+      <c r="F32">
+        <v>0.1125308461425696</v>
+      </c>
+      <c r="G32">
+        <v>-0.03917912234989769</v>
+      </c>
+      <c r="H32">
+        <v>0.01151111427203395</v>
+      </c>
+      <c r="I32">
+        <v>0.09311364570445554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006732393235771272</v>
+        <v>0.009568454991104883</v>
       </c>
       <c r="C33">
-        <v>0.0618109638204971</v>
+        <v>-0.08946703044353968</v>
       </c>
       <c r="D33">
-        <v>-0.08641644778107184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0453717483176421</v>
+      </c>
+      <c r="E33">
+        <v>-0.08364261949163003</v>
+      </c>
+      <c r="F33">
+        <v>0.01455345459609817</v>
+      </c>
+      <c r="G33">
+        <v>-0.002145163232306635</v>
+      </c>
+      <c r="H33">
+        <v>0.0300343357245356</v>
+      </c>
+      <c r="I33">
+        <v>0.06364691762644782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0100469286998853</v>
+        <v>0.01271335054524825</v>
       </c>
       <c r="C34">
-        <v>0.05462196414706218</v>
+        <v>-0.0582830656383685</v>
       </c>
       <c r="D34">
-        <v>-0.06157051090996553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01391996560726321</v>
+      </c>
+      <c r="E34">
+        <v>-0.0434600474313339</v>
+      </c>
+      <c r="F34">
+        <v>-0.02400590100194815</v>
+      </c>
+      <c r="G34">
+        <v>-0.006571592049038061</v>
+      </c>
+      <c r="H34">
+        <v>0.01010937322253656</v>
+      </c>
+      <c r="I34">
+        <v>0.02822945224754116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001713464367934511</v>
+        <v>0.004953364578119397</v>
       </c>
       <c r="C35">
-        <v>0.002179266138769556</v>
+        <v>-0.02435338840212095</v>
       </c>
       <c r="D35">
-        <v>-0.00890622891687687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01275622064688058</v>
+      </c>
+      <c r="E35">
+        <v>-0.04197804052286688</v>
+      </c>
+      <c r="F35">
+        <v>0.0179074295069453</v>
+      </c>
+      <c r="G35">
+        <v>-0.01222419461254756</v>
+      </c>
+      <c r="H35">
+        <v>0.05060117824928787</v>
+      </c>
+      <c r="I35">
+        <v>0.101066063502165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.00552003138442042</v>
+        <v>0.009621669505400396</v>
       </c>
       <c r="C36">
-        <v>0.02925917320726476</v>
+        <v>-0.04177069115439404</v>
       </c>
       <c r="D36">
-        <v>-0.04301824106812585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.007010942263562767</v>
+      </c>
+      <c r="E36">
+        <v>-0.06685846583804143</v>
+      </c>
+      <c r="F36">
+        <v>0.03605538987515202</v>
+      </c>
+      <c r="G36">
+        <v>-0.005400537682483715</v>
+      </c>
+      <c r="H36">
+        <v>0.02714572276482534</v>
+      </c>
+      <c r="I36">
+        <v>0.07447666472324629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004183942518563655</v>
+        <v>0.006864278847300306</v>
       </c>
       <c r="C38">
-        <v>0.01530326614784357</v>
+        <v>-0.04238062794286546</v>
       </c>
       <c r="D38">
-        <v>-0.06512138975519172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03574656924534952</v>
+      </c>
+      <c r="E38">
+        <v>-0.07849318472760303</v>
+      </c>
+      <c r="F38">
+        <v>0.01284873924070293</v>
+      </c>
+      <c r="G38">
+        <v>0.0473737371532162</v>
+      </c>
+      <c r="H38">
+        <v>-0.002086488652524407</v>
+      </c>
+      <c r="I38">
+        <v>0.08298881593738409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01518898674069543</v>
+        <v>0.01164394252200624</v>
       </c>
       <c r="C39">
-        <v>0.0769208404592167</v>
+        <v>-0.1058788884087164</v>
       </c>
       <c r="D39">
-        <v>-0.1115370520393367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0299246630601434</v>
+      </c>
+      <c r="E39">
+        <v>-0.0969465529440893</v>
+      </c>
+      <c r="F39">
+        <v>-0.008174895144336711</v>
+      </c>
+      <c r="G39">
+        <v>-0.01006647990419368</v>
+      </c>
+      <c r="H39">
+        <v>0.03291103916995669</v>
+      </c>
+      <c r="I39">
+        <v>0.05433255242884786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.006290866468672504</v>
+        <v>0.01006886365225263</v>
       </c>
       <c r="C40">
-        <v>0.01913458628630493</v>
+        <v>-0.04822890719830417</v>
       </c>
       <c r="D40">
-        <v>-0.0927432875399566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05779316327708842</v>
+      </c>
+      <c r="E40">
+        <v>-0.1204250855082811</v>
+      </c>
+      <c r="F40">
+        <v>-0.007830864949128904</v>
+      </c>
+      <c r="G40">
+        <v>-0.0227108106262032</v>
+      </c>
+      <c r="H40">
+        <v>0.03288494902653791</v>
+      </c>
+      <c r="I40">
+        <v>0.005056529187159891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.008626242794212768</v>
+        <v>0.01727163099225173</v>
       </c>
       <c r="C41">
-        <v>0.02468414824165785</v>
+        <v>-0.04384493156187722</v>
       </c>
       <c r="D41">
-        <v>-0.01977629553216414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01295681334899053</v>
+      </c>
+      <c r="E41">
+        <v>-0.01972689866227845</v>
+      </c>
+      <c r="F41">
+        <v>-0.01481294606328403</v>
+      </c>
+      <c r="G41">
+        <v>0.007504586699328203</v>
+      </c>
+      <c r="H41">
+        <v>0.003814742321523346</v>
+      </c>
+      <c r="I41">
+        <v>0.0451731325005869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004456039622058533</v>
+        <v>0.008196230920588228</v>
       </c>
       <c r="C43">
-        <v>0.01844162114354716</v>
+        <v>-0.03537671712337322</v>
       </c>
       <c r="D43">
-        <v>-0.03693097617920787</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01322449198229202</v>
+      </c>
+      <c r="E43">
+        <v>-0.04508959346530945</v>
+      </c>
+      <c r="F43">
+        <v>-0.003143258865628704</v>
+      </c>
+      <c r="G43">
+        <v>0.0139682898713233</v>
+      </c>
+      <c r="H43">
+        <v>0.01595972402262311</v>
+      </c>
+      <c r="I43">
+        <v>0.05528898165010201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01801700227226281</v>
+        <v>0.007597285894674871</v>
       </c>
       <c r="C44">
-        <v>0.05173494898161286</v>
+        <v>-0.07372403556714099</v>
       </c>
       <c r="D44">
-        <v>-0.0834793720982319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0293157295402465</v>
+      </c>
+      <c r="E44">
+        <v>-0.101831851585741</v>
+      </c>
+      <c r="F44">
+        <v>0.04449818364633491</v>
+      </c>
+      <c r="G44">
+        <v>0.009663117611863042</v>
+      </c>
+      <c r="H44">
+        <v>-0.006300619733421153</v>
+      </c>
+      <c r="I44">
+        <v>0.02901263849787651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.0002488292150507672</v>
+        <v>-0.0007250072219437762</v>
       </c>
       <c r="C46">
-        <v>0.03868270350266822</v>
+        <v>-0.05301115354604362</v>
       </c>
       <c r="D46">
-        <v>-0.07009079531957269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01633691464668246</v>
+      </c>
+      <c r="E46">
+        <v>-0.08805152918423649</v>
+      </c>
+      <c r="F46">
+        <v>0.01734497854544905</v>
+      </c>
+      <c r="G46">
+        <v>-0.01064608777272283</v>
+      </c>
+      <c r="H46">
+        <v>0.05210644292357178</v>
+      </c>
+      <c r="I46">
+        <v>0.1120961416073817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04444415840585908</v>
+        <v>0.02865977546607833</v>
       </c>
       <c r="C47">
-        <v>0.1156835742014891</v>
+        <v>-0.1144441733183156</v>
       </c>
       <c r="D47">
-        <v>-0.03995843382936941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008726859993217782</v>
+      </c>
+      <c r="E47">
+        <v>-0.01607331367983194</v>
+      </c>
+      <c r="F47">
+        <v>-0.003073324872614747</v>
+      </c>
+      <c r="G47">
+        <v>0.01009411116006093</v>
+      </c>
+      <c r="H47">
+        <v>-0.001315975351932641</v>
+      </c>
+      <c r="I47">
+        <v>0.08938258299530127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007849518473046871</v>
+        <v>0.0136144357278583</v>
       </c>
       <c r="C48">
-        <v>0.03203933291473076</v>
+        <v>-0.04768359754224823</v>
       </c>
       <c r="D48">
-        <v>-0.04241474239970721</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00259773172502405</v>
+      </c>
+      <c r="E48">
+        <v>-0.07710970596489336</v>
+      </c>
+      <c r="F48">
+        <v>0.04612356943763038</v>
+      </c>
+      <c r="G48">
+        <v>0.00124452201473828</v>
+      </c>
+      <c r="H48">
+        <v>0.03330942260137702</v>
+      </c>
+      <c r="I48">
+        <v>0.1198992988314076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002986404196684012</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006691137182821928</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00600673164209197</v>
+      </c>
+      <c r="E49">
+        <v>-0.006651663254552426</v>
+      </c>
+      <c r="F49">
+        <v>-0.01270489587451293</v>
+      </c>
+      <c r="G49">
+        <v>-0.009175202678768963</v>
+      </c>
+      <c r="H49">
+        <v>0.01360706851319462</v>
+      </c>
+      <c r="I49">
+        <v>-0.009626838763952731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01316002011823508</v>
+        <v>0.01106209625097781</v>
       </c>
       <c r="C50">
-        <v>0.05384366745329898</v>
+        <v>-0.07207341233561024</v>
       </c>
       <c r="D50">
-        <v>-0.04361635464943498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01551374058383418</v>
+      </c>
+      <c r="E50">
+        <v>-0.03545162945402731</v>
+      </c>
+      <c r="F50">
+        <v>0.01453881303376643</v>
+      </c>
+      <c r="G50">
+        <v>0.009645641711010925</v>
+      </c>
+      <c r="H50">
+        <v>-0.007901294292038249</v>
+      </c>
+      <c r="I50">
+        <v>0.05975687890116217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00491244383583021</v>
+        <v>-0.005532353033686292</v>
       </c>
       <c r="C51">
-        <v>0.01841038668945264</v>
+        <v>-0.02965999215798101</v>
       </c>
       <c r="D51">
-        <v>-0.06546514690047495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01416276635305648</v>
+      </c>
+      <c r="E51">
+        <v>-0.05985123275042235</v>
+      </c>
+      <c r="F51">
+        <v>0.04841258228291782</v>
+      </c>
+      <c r="G51">
+        <v>-0.01455996891438433</v>
+      </c>
+      <c r="H51">
+        <v>1.948337539339494e-05</v>
+      </c>
+      <c r="I51">
+        <v>0.1018635009475251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.08570765362481871</v>
+        <v>0.06244539712783469</v>
       </c>
       <c r="C53">
-        <v>0.1562759904520652</v>
+        <v>-0.1634587653358478</v>
       </c>
       <c r="D53">
-        <v>-0.001458045383967372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04246248213955645</v>
+      </c>
+      <c r="E53">
+        <v>0.04588830857077216</v>
+      </c>
+      <c r="F53">
+        <v>-0.0264693920310746</v>
+      </c>
+      <c r="G53">
+        <v>0.01462148083216793</v>
+      </c>
+      <c r="H53">
+        <v>-0.03979377519310476</v>
+      </c>
+      <c r="I53">
+        <v>0.02178280725228491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.006783399543159687</v>
+        <v>0.01275498773099593</v>
       </c>
       <c r="C54">
-        <v>0.03053952233640365</v>
+        <v>-0.05173191185038525</v>
       </c>
       <c r="D54">
-        <v>-0.07781138456854338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04416922294592167</v>
+      </c>
+      <c r="E54">
+        <v>-0.05827368150605804</v>
+      </c>
+      <c r="F54">
+        <v>0.01149565082136224</v>
+      </c>
+      <c r="G54">
+        <v>0.004995460234781049</v>
+      </c>
+      <c r="H54">
+        <v>0.007363180161591653</v>
+      </c>
+      <c r="I54">
+        <v>0.09098753223133056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.0600436697453804</v>
+        <v>0.03881173884014775</v>
       </c>
       <c r="C55">
-        <v>0.1122836605679408</v>
+        <v>-0.115054226877602</v>
       </c>
       <c r="D55">
-        <v>0.003486142136847204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.052088896284345</v>
+      </c>
+      <c r="E55">
+        <v>0.02050934593998451</v>
+      </c>
+      <c r="F55">
+        <v>-0.03302051198800755</v>
+      </c>
+      <c r="G55">
+        <v>0.002363094583577448</v>
+      </c>
+      <c r="H55">
+        <v>-0.0459743950847486</v>
+      </c>
+      <c r="I55">
+        <v>0.02410068731834313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09425885056651583</v>
+        <v>0.059773834834254</v>
       </c>
       <c r="C56">
-        <v>0.1693325222845278</v>
+        <v>-0.1832651045843808</v>
       </c>
       <c r="D56">
-        <v>-0.02574063018589702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05352588504596197</v>
+      </c>
+      <c r="E56">
+        <v>0.03628383926085559</v>
+      </c>
+      <c r="F56">
+        <v>-0.06240748256193165</v>
+      </c>
+      <c r="G56">
+        <v>0.01392461294556386</v>
+      </c>
+      <c r="H56">
+        <v>-0.1254731806302235</v>
+      </c>
+      <c r="I56">
+        <v>0.01788340559837772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01669957149465728</v>
+        <v>0.01062513436241105</v>
       </c>
       <c r="C58">
-        <v>0.06269088405119459</v>
+        <v>-0.1157356974316105</v>
       </c>
       <c r="D58">
-        <v>-0.198718638981694</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1399958287763531</v>
+      </c>
+      <c r="E58">
+        <v>-0.1568763554739616</v>
+      </c>
+      <c r="F58">
+        <v>0.2677330204275908</v>
+      </c>
+      <c r="G58">
+        <v>0.06287383119018591</v>
+      </c>
+      <c r="H58">
+        <v>-0.1239046980996876</v>
+      </c>
+      <c r="I58">
+        <v>-0.05595859118112364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2361586804552318</v>
+        <v>0.2677183797904029</v>
       </c>
       <c r="C59">
-        <v>-0.08015625104022292</v>
+        <v>0.05288678344348873</v>
       </c>
       <c r="D59">
-        <v>-0.04901589361355784</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02181790692154384</v>
+      </c>
+      <c r="E59">
+        <v>-0.02644839025310351</v>
+      </c>
+      <c r="F59">
+        <v>0.02935047939033784</v>
+      </c>
+      <c r="G59">
+        <v>-0.01764275952629212</v>
+      </c>
+      <c r="H59">
+        <v>0.003798700189698643</v>
+      </c>
+      <c r="I59">
+        <v>-0.0291614155061365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1500335077811994</v>
+        <v>0.1522497243051106</v>
       </c>
       <c r="C60">
-        <v>0.1239260350538024</v>
+        <v>-0.1559247128957216</v>
       </c>
       <c r="D60">
-        <v>-0.09471676687398735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03219296293391979</v>
+      </c>
+      <c r="E60">
+        <v>-0.07770613083237024</v>
+      </c>
+      <c r="F60">
+        <v>-0.2245806039089605</v>
+      </c>
+      <c r="G60">
+        <v>-0.101785895614068</v>
+      </c>
+      <c r="H60">
+        <v>0.1902252245018738</v>
+      </c>
+      <c r="I60">
+        <v>-0.2718816898584978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02104784342604627</v>
+        <v>0.0179604771195135</v>
       </c>
       <c r="C61">
-        <v>0.06498642234836975</v>
+        <v>-0.09111692894759109</v>
       </c>
       <c r="D61">
-        <v>-0.07788447257445007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.01934419932797088</v>
+      </c>
+      <c r="E61">
+        <v>-0.07702407730332644</v>
+      </c>
+      <c r="F61">
+        <v>-0.02063478048732105</v>
+      </c>
+      <c r="G61">
+        <v>0.001989963183445824</v>
+      </c>
+      <c r="H61">
+        <v>0.02449827152563902</v>
+      </c>
+      <c r="I61">
+        <v>0.06537808422569771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002815043546325553</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001062990657933675</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0004558228883886265</v>
+      </c>
+      <c r="E62">
+        <v>0.0002104052168270234</v>
+      </c>
+      <c r="F62">
+        <v>0.002267297191072195</v>
+      </c>
+      <c r="G62">
+        <v>-0.0001790769578580633</v>
+      </c>
+      <c r="H62">
+        <v>-0.0007272741414281436</v>
+      </c>
+      <c r="I62">
+        <v>0.002939560141176023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.00297409561609707</v>
+        <v>0.01714173507325139</v>
       </c>
       <c r="C63">
-        <v>0.04605608739922453</v>
+        <v>-0.0638691338008905</v>
       </c>
       <c r="D63">
-        <v>-0.06272733393496453</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008574430456292553</v>
+      </c>
+      <c r="E63">
+        <v>-0.07526929567136234</v>
+      </c>
+      <c r="F63">
+        <v>0.003577803621998667</v>
+      </c>
+      <c r="G63">
+        <v>-0.003068573450826352</v>
+      </c>
+      <c r="H63">
+        <v>0.02610757825753024</v>
+      </c>
+      <c r="I63">
+        <v>0.07945468248525259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.03146272118308888</v>
+        <v>0.01701847419459438</v>
       </c>
       <c r="C64">
-        <v>0.10829871870683</v>
+        <v>-0.1062990944875116</v>
       </c>
       <c r="D64">
-        <v>-0.02386350094587254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01079353264585396</v>
+      </c>
+      <c r="E64">
+        <v>-0.02816718844535194</v>
+      </c>
+      <c r="F64">
+        <v>0.0150768523052416</v>
+      </c>
+      <c r="G64">
+        <v>0.01948867508832188</v>
+      </c>
+      <c r="H64">
+        <v>0.05848396787522074</v>
+      </c>
+      <c r="I64">
+        <v>-0.01646537659397958</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01740854565588976</v>
+        <v>0.02301426861317158</v>
       </c>
       <c r="C65">
-        <v>0.03992265893991758</v>
+        <v>-0.06595059008016918</v>
       </c>
       <c r="D65">
-        <v>-0.08790729677561951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05855158119205424</v>
+      </c>
+      <c r="E65">
+        <v>-0.09535915544491698</v>
+      </c>
+      <c r="F65">
+        <v>-0.003562351982596551</v>
+      </c>
+      <c r="G65">
+        <v>0.003644390142217786</v>
+      </c>
+      <c r="H65">
+        <v>0.0868941004433057</v>
+      </c>
+      <c r="I65">
+        <v>-0.0201760764884321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02090854989374427</v>
+        <v>0.01305679417244597</v>
       </c>
       <c r="C66">
-        <v>0.09509815361351959</v>
+        <v>-0.1309787665839339</v>
       </c>
       <c r="D66">
-        <v>-0.1445782084159437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06054055669549865</v>
+      </c>
+      <c r="E66">
+        <v>-0.1065373139266265</v>
+      </c>
+      <c r="F66">
+        <v>0.004111796083588529</v>
+      </c>
+      <c r="G66">
+        <v>-0.001773740409809784</v>
+      </c>
+      <c r="H66">
+        <v>0.002508006239615607</v>
+      </c>
+      <c r="I66">
+        <v>0.04768966938269849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01786188575199299</v>
+        <v>0.01780928185622618</v>
       </c>
       <c r="C67">
-        <v>0.01807879992310925</v>
+        <v>-0.04153527075051121</v>
       </c>
       <c r="D67">
-        <v>-0.03426972550081387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01097014126834272</v>
+      </c>
+      <c r="E67">
+        <v>-0.0634515525362431</v>
+      </c>
+      <c r="F67">
+        <v>-0.02907314027919444</v>
+      </c>
+      <c r="G67">
+        <v>0.04033843144329753</v>
+      </c>
+      <c r="H67">
+        <v>0.01225740565207624</v>
+      </c>
+      <c r="I67">
+        <v>0.06490840842664872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2332502805870479</v>
+        <v>0.2780552672375715</v>
       </c>
       <c r="C68">
-        <v>-0.09649400232937064</v>
+        <v>0.06689657021515992</v>
       </c>
       <c r="D68">
-        <v>-0.01686617177522904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0424450386107971</v>
+      </c>
+      <c r="E68">
+        <v>-0.01161665770086555</v>
+      </c>
+      <c r="F68">
+        <v>0.05768719025842625</v>
+      </c>
+      <c r="G68">
+        <v>0.01478181367722362</v>
+      </c>
+      <c r="H68">
+        <v>-0.02537412684388604</v>
+      </c>
+      <c r="I68">
+        <v>-0.01900325486686935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.04134312438154373</v>
+        <v>0.01729309463347885</v>
       </c>
       <c r="C69">
-        <v>0.1196637707881047</v>
+        <v>-0.1036739326457451</v>
       </c>
       <c r="D69">
-        <v>-0.05348087641859733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01966482361844806</v>
+      </c>
+      <c r="E69">
+        <v>-0.02671614396354761</v>
+      </c>
+      <c r="F69">
+        <v>-0.0168746245507288</v>
+      </c>
+      <c r="G69">
+        <v>0.005651281026190268</v>
+      </c>
+      <c r="H69">
+        <v>-0.006219875518329682</v>
+      </c>
+      <c r="I69">
+        <v>0.05133798684085877</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2486351850833475</v>
+        <v>0.2670211866627007</v>
       </c>
       <c r="C71">
-        <v>-0.1167968496050513</v>
+        <v>0.08205485994399479</v>
       </c>
       <c r="D71">
-        <v>-0.01779188526268994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01928110176336742</v>
+      </c>
+      <c r="E71">
+        <v>-0.01792774036254176</v>
+      </c>
+      <c r="F71">
+        <v>0.02620300188142112</v>
+      </c>
+      <c r="G71">
+        <v>0.03025173003109697</v>
+      </c>
+      <c r="H71">
+        <v>-0.004492183616141861</v>
+      </c>
+      <c r="I71">
+        <v>0.07189444103651101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.08132741028119879</v>
+        <v>0.06314767939060889</v>
       </c>
       <c r="C72">
-        <v>0.1168875813841849</v>
+        <v>-0.137113197521808</v>
       </c>
       <c r="D72">
-        <v>-0.0974042153345568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01884072914087191</v>
+      </c>
+      <c r="E72">
+        <v>-0.05108719251494106</v>
+      </c>
+      <c r="F72">
+        <v>-0.04000089404433065</v>
+      </c>
+      <c r="G72">
+        <v>-0.004905640599551303</v>
+      </c>
+      <c r="H72">
+        <v>0.02121756598091802</v>
+      </c>
+      <c r="I72">
+        <v>-0.02313167992915468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1214387006990129</v>
+        <v>0.1446612465433754</v>
       </c>
       <c r="C73">
-        <v>0.0936575298280909</v>
+        <v>-0.1574460026256531</v>
       </c>
       <c r="D73">
-        <v>-0.1252846886147341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04292226515034907</v>
+      </c>
+      <c r="E73">
+        <v>-0.1692431842881615</v>
+      </c>
+      <c r="F73">
+        <v>-0.316962933480177</v>
+      </c>
+      <c r="G73">
+        <v>-0.1258770000017063</v>
+      </c>
+      <c r="H73">
+        <v>0.3089408365538276</v>
+      </c>
+      <c r="I73">
+        <v>-0.2804644693924196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07282667419942512</v>
+        <v>0.04983550987505385</v>
       </c>
       <c r="C74">
-        <v>0.137307820390239</v>
+        <v>-0.1367093211739542</v>
       </c>
       <c r="D74">
-        <v>0.04520122830159042</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06214739999181369</v>
+      </c>
+      <c r="E74">
+        <v>0.04453731353249096</v>
+      </c>
+      <c r="F74">
+        <v>-0.01928119593505094</v>
+      </c>
+      <c r="G74">
+        <v>0.01513117719027612</v>
+      </c>
+      <c r="H74">
+        <v>-0.02541934858992182</v>
+      </c>
+      <c r="I74">
+        <v>0.02598052744380421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1732291640569555</v>
+        <v>0.09774924224627263</v>
       </c>
       <c r="C75">
-        <v>0.2278782757462109</v>
+        <v>-0.2358363503529481</v>
       </c>
       <c r="D75">
-        <v>0.01951643139221479</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1044579001850905</v>
+      </c>
+      <c r="E75">
+        <v>0.1075293541751028</v>
+      </c>
+      <c r="F75">
+        <v>-0.1582799545412783</v>
+      </c>
+      <c r="G75">
+        <v>0.116462170582605</v>
+      </c>
+      <c r="H75">
+        <v>-0.2300411622193783</v>
+      </c>
+      <c r="I75">
+        <v>0.0274541183717546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09149317072232191</v>
+        <v>0.05586945935253856</v>
       </c>
       <c r="C76">
-        <v>0.1654382710276191</v>
+        <v>-0.1737701079083998</v>
       </c>
       <c r="D76">
-        <v>-0.01486811910112595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06369060816868893</v>
+      </c>
+      <c r="E76">
+        <v>0.02708101319215156</v>
+      </c>
+      <c r="F76">
+        <v>-0.09492278852223918</v>
+      </c>
+      <c r="G76">
+        <v>0.009167935337475562</v>
+      </c>
+      <c r="H76">
+        <v>-0.08251066365202527</v>
+      </c>
+      <c r="I76">
+        <v>0.05176440124317865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03100768501423009</v>
+        <v>0.02539346748291358</v>
       </c>
       <c r="C77">
-        <v>0.08886276580249353</v>
+        <v>-0.1515102679810895</v>
       </c>
       <c r="D77">
-        <v>-0.2926050487013062</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.8136183164841514</v>
+      </c>
+      <c r="E77">
+        <v>0.5292391043523214</v>
+      </c>
+      <c r="F77">
+        <v>-0.07071743595795511</v>
+      </c>
+      <c r="G77">
+        <v>0.02706019631758083</v>
+      </c>
+      <c r="H77">
+        <v>0.07418022270237139</v>
+      </c>
+      <c r="I77">
+        <v>0.07978442689390938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02970656064601475</v>
+        <v>0.02699799505261943</v>
       </c>
       <c r="C78">
-        <v>0.08880813916303849</v>
+        <v>-0.1040881356962614</v>
       </c>
       <c r="D78">
-        <v>-0.1238332809834688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.003004508932170697</v>
+      </c>
+      <c r="E78">
+        <v>-0.101751603313808</v>
+      </c>
+      <c r="F78">
+        <v>0.0583227095725319</v>
+      </c>
+      <c r="G78">
+        <v>-0.03050392879205735</v>
+      </c>
+      <c r="H78">
+        <v>-0.09148564733861694</v>
+      </c>
+      <c r="I78">
+        <v>0.1092713899169138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09188126175692291</v>
+        <v>0.05714084915640625</v>
       </c>
       <c r="C79">
-        <v>0.4079793964694462</v>
+        <v>-0.2972055420878422</v>
       </c>
       <c r="D79">
-        <v>0.6301853259574891</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.320910579334597</v>
+      </c>
+      <c r="E79">
+        <v>0.4312431719068934</v>
+      </c>
+      <c r="F79">
+        <v>0.5516330066121712</v>
+      </c>
+      <c r="G79">
+        <v>-0.0558388380058545</v>
+      </c>
+      <c r="H79">
+        <v>0.4790659738420804</v>
+      </c>
+      <c r="I79">
+        <v>-0.1090125388662491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.001157165014273098</v>
+        <v>0.009736973447756706</v>
       </c>
       <c r="C80">
-        <v>0.05983675548997886</v>
+        <v>-0.05821157000825834</v>
       </c>
       <c r="D80">
-        <v>-0.04432748238131929</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.004417236149438037</v>
+      </c>
+      <c r="E80">
+        <v>-0.07104643673642966</v>
+      </c>
+      <c r="F80">
+        <v>-0.02950951894716786</v>
+      </c>
+      <c r="G80">
+        <v>-0.06242346272437901</v>
+      </c>
+      <c r="H80">
+        <v>0.01787774307502628</v>
+      </c>
+      <c r="I80">
+        <v>-0.03138981452207212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.0792864623079557</v>
+        <v>0.03592508989142996</v>
       </c>
       <c r="C81">
-        <v>0.1517194839785783</v>
+        <v>-0.1518772574137886</v>
       </c>
       <c r="D81">
-        <v>0.05199787535012453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07235243475807572</v>
+      </c>
+      <c r="E81">
+        <v>0.0592492729660414</v>
+      </c>
+      <c r="F81">
+        <v>-0.01789831679064031</v>
+      </c>
+      <c r="G81">
+        <v>0.0228400768797509</v>
+      </c>
+      <c r="H81">
+        <v>-0.07397549295698506</v>
+      </c>
+      <c r="I81">
+        <v>0.06494488821535145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1387781046263221</v>
+        <v>0.0764139700538574</v>
       </c>
       <c r="C82">
-        <v>0.2182487051858591</v>
+        <v>-0.2009491431201522</v>
       </c>
       <c r="D82">
-        <v>0.02200301763275152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1015951796552883</v>
+      </c>
+      <c r="E82">
+        <v>0.06871988878437252</v>
+      </c>
+      <c r="F82">
+        <v>-0.08881846426966507</v>
+      </c>
+      <c r="G82">
+        <v>0.008024089872117817</v>
+      </c>
+      <c r="H82">
+        <v>-0.1276596296879494</v>
+      </c>
+      <c r="I82">
+        <v>0.08371894418121155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004126951070092612</v>
+        <v>0.003910909366361496</v>
       </c>
       <c r="C83">
-        <v>0.0565522741375658</v>
+        <v>-0.01964955428752866</v>
       </c>
       <c r="D83">
-        <v>-0.04953588892957244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0418590412987792</v>
+      </c>
+      <c r="E83">
+        <v>0.05484384949714241</v>
+      </c>
+      <c r="F83">
+        <v>0.09598613788378253</v>
+      </c>
+      <c r="G83">
+        <v>-0.9073273011103132</v>
+      </c>
+      <c r="H83">
+        <v>-0.2626448045417806</v>
+      </c>
+      <c r="I83">
+        <v>-0.04924014014709437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002447278946886384</v>
+        <v>-0.002552607397444534</v>
       </c>
       <c r="C84">
-        <v>0.01345748310132967</v>
+        <v>-0.02865103235915739</v>
       </c>
       <c r="D84">
-        <v>-0.03777470566544434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01815285685039012</v>
+      </c>
+      <c r="E84">
+        <v>-0.05148548983842202</v>
+      </c>
+      <c r="F84">
+        <v>0.06067539735672386</v>
+      </c>
+      <c r="G84">
+        <v>0.05238011781078505</v>
+      </c>
+      <c r="H84">
+        <v>-0.03330352128495036</v>
+      </c>
+      <c r="I84">
+        <v>0.06917396218975334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.0881110062044374</v>
+        <v>0.04986243288898552</v>
       </c>
       <c r="C85">
-        <v>0.1852827495009784</v>
+        <v>-0.1747055820250666</v>
       </c>
       <c r="D85">
-        <v>0.07578041919008904</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1218532175122493</v>
+      </c>
+      <c r="E85">
+        <v>0.08461714754707886</v>
+      </c>
+      <c r="F85">
+        <v>-0.02807934735236692</v>
+      </c>
+      <c r="G85">
+        <v>0.01642040554713164</v>
+      </c>
+      <c r="H85">
+        <v>-0.07566104637072046</v>
+      </c>
+      <c r="I85">
+        <v>0.02805663540312628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02592761068952156</v>
+        <v>0.01588446234204912</v>
       </c>
       <c r="C86">
-        <v>0.03105326238098938</v>
+        <v>-0.06099010837082651</v>
       </c>
       <c r="D86">
-        <v>-0.09138837120596353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04980676660319695</v>
+      </c>
+      <c r="E86">
+        <v>-0.04136347374843206</v>
+      </c>
+      <c r="F86">
+        <v>0.07299056634028983</v>
+      </c>
+      <c r="G86">
+        <v>0.03787060692620551</v>
+      </c>
+      <c r="H86">
+        <v>-0.03049820449034684</v>
+      </c>
+      <c r="I86">
+        <v>0.06224697889173773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02610941896678539</v>
+        <v>0.01589326966259737</v>
       </c>
       <c r="C87">
-        <v>0.07068259328595629</v>
+        <v>-0.09300346953432041</v>
       </c>
       <c r="D87">
-        <v>-0.140849052909436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07486442265715981</v>
+      </c>
+      <c r="E87">
+        <v>-0.09464345451465923</v>
+      </c>
+      <c r="F87">
+        <v>0.08333081437085833</v>
+      </c>
+      <c r="G87">
+        <v>0.01552727511638467</v>
+      </c>
+      <c r="H87">
+        <v>-0.04913100957382811</v>
+      </c>
+      <c r="I87">
+        <v>0.04175007049457623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03966299757848738</v>
+        <v>0.03776733941617479</v>
       </c>
       <c r="C88">
-        <v>0.07668600563460949</v>
+        <v>-0.08397822301141269</v>
       </c>
       <c r="D88">
-        <v>-0.002035195029888532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01122061776544384</v>
+      </c>
+      <c r="E88">
+        <v>-0.01725876287773821</v>
+      </c>
+      <c r="F88">
+        <v>-0.02824148800985975</v>
+      </c>
+      <c r="G88">
+        <v>0.006587917287990562</v>
+      </c>
+      <c r="H88">
+        <v>0.01022431164631748</v>
+      </c>
+      <c r="I88">
+        <v>0.01945118994022693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4130692530319358</v>
+        <v>0.4076629970205516</v>
       </c>
       <c r="C89">
-        <v>-0.2210053657165276</v>
+        <v>0.1532287874638418</v>
       </c>
       <c r="D89">
-        <v>0.02803242014145047</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02097633933265589</v>
+      </c>
+      <c r="E89">
+        <v>-0.01269471813538252</v>
+      </c>
+      <c r="F89">
+        <v>0.1059093295846299</v>
+      </c>
+      <c r="G89">
+        <v>-0.09124621799363397</v>
+      </c>
+      <c r="H89">
+        <v>-0.0892560422438205</v>
+      </c>
+      <c r="I89">
+        <v>0.01955715491604985</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3017985805933383</v>
+        <v>0.319322908746577</v>
       </c>
       <c r="C90">
-        <v>-0.1536249158922752</v>
+        <v>0.09900089100108302</v>
       </c>
       <c r="D90">
-        <v>-0.06420924826622544</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03649162716067264</v>
+      </c>
+      <c r="E90">
+        <v>-0.04170783756399143</v>
+      </c>
+      <c r="F90">
+        <v>0.01755603124565972</v>
+      </c>
+      <c r="G90">
+        <v>0.01115485639518363</v>
+      </c>
+      <c r="H90">
+        <v>-0.02560215656387145</v>
+      </c>
+      <c r="I90">
+        <v>-0.0001331935628989107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1034112658534564</v>
+        <v>0.06582902685861172</v>
       </c>
       <c r="C91">
-        <v>0.213396054344212</v>
+        <v>-0.183931234773542</v>
       </c>
       <c r="D91">
-        <v>0.07913855985008846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09009007561793843</v>
+      </c>
+      <c r="E91">
+        <v>0.1143337210611451</v>
+      </c>
+      <c r="F91">
+        <v>-0.01245988387134092</v>
+      </c>
+      <c r="G91">
+        <v>-0.01939188723148624</v>
+      </c>
+      <c r="H91">
+        <v>-0.04953121155118272</v>
+      </c>
+      <c r="I91">
+        <v>0.0167995989146351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.317143520993139</v>
+        <v>0.3425933223821028</v>
       </c>
       <c r="C92">
-        <v>-0.1684490360962636</v>
+        <v>0.1291901731525685</v>
       </c>
       <c r="D92">
-        <v>0.02594727307284708</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02512196386224565</v>
+      </c>
+      <c r="E92">
+        <v>0.01790747701512059</v>
+      </c>
+      <c r="F92">
+        <v>0.07208462790908567</v>
+      </c>
+      <c r="G92">
+        <v>0.09814515137140263</v>
+      </c>
+      <c r="H92">
+        <v>0.03190495028714736</v>
+      </c>
+      <c r="I92">
+        <v>0.03211513525179214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3138580450690462</v>
+        <v>0.3221771468815731</v>
       </c>
       <c r="C93">
-        <v>-0.1598312740099775</v>
+        <v>0.1206247990069321</v>
       </c>
       <c r="D93">
-        <v>0.04988185770328128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02610428157538847</v>
+      </c>
+      <c r="E93">
+        <v>0.01881392709381302</v>
+      </c>
+      <c r="F93">
+        <v>0.03632246415640222</v>
+      </c>
+      <c r="G93">
+        <v>0.01992254351385142</v>
+      </c>
+      <c r="H93">
+        <v>4.17682633363891e-05</v>
+      </c>
+      <c r="I93">
+        <v>0.04550305200580752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1782105433806896</v>
+        <v>0.1173597189709741</v>
       </c>
       <c r="C94">
-        <v>0.2560863081449571</v>
+        <v>-0.2527572602908448</v>
       </c>
       <c r="D94">
-        <v>0.07730455545602768</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.16015437498607</v>
+      </c>
+      <c r="E94">
+        <v>0.2057213258326827</v>
+      </c>
+      <c r="F94">
+        <v>-0.1889687478645154</v>
+      </c>
+      <c r="G94">
+        <v>0.0868374132685215</v>
+      </c>
+      <c r="H94">
+        <v>-0.4238265322625384</v>
+      </c>
+      <c r="I94">
+        <v>-0.09950580684988213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0408039850789792</v>
+        <v>0.03827444366646233</v>
       </c>
       <c r="C95">
-        <v>0.04214519116162167</v>
+        <v>-0.09061783230564233</v>
       </c>
       <c r="D95">
-        <v>-0.0642083015047773</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04951750615664054</v>
+      </c>
+      <c r="E95">
+        <v>-0.07245454602783333</v>
+      </c>
+      <c r="F95">
+        <v>-0.1020425188204545</v>
+      </c>
+      <c r="G95">
+        <v>0.0355430562157536</v>
+      </c>
+      <c r="H95">
+        <v>0.04453218194480941</v>
+      </c>
+      <c r="I95">
+        <v>0.09663327942135441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002217424509008565</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.002494239026261555</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01688623631290703</v>
+      </c>
+      <c r="E97">
+        <v>0.004129160032231758</v>
+      </c>
+      <c r="F97">
+        <v>-0.008907642858102291</v>
+      </c>
+      <c r="G97">
+        <v>0.01875453330098141</v>
+      </c>
+      <c r="H97">
+        <v>0.001032103629773827</v>
+      </c>
+      <c r="I97">
+        <v>0.00197394623666853</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1075400868103268</v>
+        <v>0.1296586151785046</v>
       </c>
       <c r="C98">
-        <v>0.09539806373274126</v>
+        <v>-0.1429438390002508</v>
       </c>
       <c r="D98">
-        <v>-0.120659468759153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.02152854221561342</v>
+      </c>
+      <c r="E98">
+        <v>-0.1379696416958571</v>
+      </c>
+      <c r="F98">
+        <v>-0.2445235771485607</v>
+      </c>
+      <c r="G98">
+        <v>-0.07795417100151951</v>
+      </c>
+      <c r="H98">
+        <v>0.2744980173022887</v>
+      </c>
+      <c r="I98">
+        <v>-0.3128290679936254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.005666151826167806</v>
+        <v>0.004796643883503923</v>
       </c>
       <c r="C101">
-        <v>0.02905673489095656</v>
+        <v>-0.05733975807906594</v>
       </c>
       <c r="D101">
-        <v>-0.070340682317207</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03438923560408472</v>
+      </c>
+      <c r="E101">
+        <v>-0.1140132386045542</v>
+      </c>
+      <c r="F101">
+        <v>0.02215679935445321</v>
+      </c>
+      <c r="G101">
+        <v>-0.05479875540367693</v>
+      </c>
+      <c r="H101">
+        <v>0.08441344571856885</v>
+      </c>
+      <c r="I101">
+        <v>0.1732619358314364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.06304312419669775</v>
+        <v>0.02341097626630787</v>
       </c>
       <c r="C102">
-        <v>0.1250435951486391</v>
+        <v>-0.08866819756183521</v>
       </c>
       <c r="D102">
-        <v>-0.01017785509968286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0442643145644731</v>
+      </c>
+      <c r="E102">
+        <v>0.04529149698951593</v>
+      </c>
+      <c r="F102">
+        <v>-0.04068395811926293</v>
+      </c>
+      <c r="G102">
+        <v>-0.007256090396263933</v>
+      </c>
+      <c r="H102">
+        <v>-0.06792123958224851</v>
+      </c>
+      <c r="I102">
+        <v>0.01249917852002812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
